--- a/biology/Médecine/Tabac_chauffé/Tabac_chauffé.xlsx
+++ b/biology/Médecine/Tabac_chauffé/Tabac_chauffé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tabac chauffé (en anglais : heated tobacco product) est un dispositif pour consommer le tabac mis au point en 2014. L'objectif affiché par l'industrie du tabac est de proposer des produits présentant un « risque réduit » pour le consommateur[1], un argument marketing réfuté par les récentes études scientifiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tabac chauffé (en anglais : heated tobacco product) est un dispositif pour consommer le tabac mis au point en 2014. L'objectif affiché par l'industrie du tabac est de proposer des produits présentant un « risque réduit » pour le consommateur, un argument marketing réfuté par les récentes études scientifiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces produits de tabac chauffé utilisent des bâtonnets de tabac, ou « sticks » qui sont insérés dans un dispositif doté d’un élément chauffant alimenté par une batterie. Cet élément chauffant permet de chauffer ces mini-cigarettes de tabac afin d’en libérer un aérosol contenant notamment de la nicotine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces produits de tabac chauffé utilisent des bâtonnets de tabac, ou « sticks » qui sont insérés dans un dispositif doté d’un élément chauffant alimenté par une batterie. Cet élément chauffant permet de chauffer ces mini-cigarettes de tabac afin d’en libérer un aérosol contenant notamment de la nicotine.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits à base de tabac chauffé sont composés de tabac reconstitué (feuilles moulées) à partir de poudre de tabac et d’additifs (glycérol, gomme de guar, fibres de cellulose, propylène glycol, éthanol, arômes).
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Effets sur la santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon des études scientifiques, le tabac chauffé présenterait le même degré de toxicité que la cigarette[4] ou la cigarette électronique[réf. à confirmer][5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon des études scientifiques, le tabac chauffé présenterait le même degré de toxicité que la cigarette ou la cigarette électronique[réf. à confirmer].
 Pour de nombreux pneumologues, il n'existe aucune preuve que ce tabac soit moins nocif car du tabac qui chauffe à 300 °C, cela reste une combustion partielle, qui rejette du monoxyde de carbone et qui est susceptible d'engendrer également un tabagisme passif.
-La première étude scientifique indépendante sur l'Iqos et ses recharges Heets (deux produits de la marque Philip Morris International), réalisée à Lausanne et publiée en mai 2017, révèle que « des composés organiques volatils – des hydrocarbures aromatiques polycycliques cancérigènes et du monoxyde de carbone étaient présents dans la fumée de l’IQOS ». Si la concentration de la plupart des composés toxiques est moins élevée que dans une cigarette classique, elle atteint « 82 % pour l’acroléine et dépasse même 175 % pour l’acénaphtène, deux substances irritantes majeures de la fumée de tabac »[6].
-Par ailleurs, selon le Pr Bertrand Dautzenberg, les produits de tabac chauffé sont conçus pour susciter une dépendance[7],[2].
+La première étude scientifique indépendante sur l'Iqos et ses recharges Heets (deux produits de la marque Philip Morris International), réalisée à Lausanne et publiée en mai 2017, révèle que « des composés organiques volatils – des hydrocarbures aromatiques polycycliques cancérigènes et du monoxyde de carbone étaient présents dans la fumée de l’IQOS ». Si la concentration de la plupart des composés toxiques est moins élevée que dans une cigarette classique, elle atteint « 82 % pour l’acroléine et dépasse même 175 % pour l’acénaphtène, deux substances irritantes majeures de la fumée de tabac ».
+Par ailleurs, selon le Pr Bertrand Dautzenberg, les produits de tabac chauffé sont conçus pour susciter une dépendance,.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,13 +625,15 @@
           <t>Réglementation et politique fiscale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au vu des connaissances scientifiques actuelles, les produits du tabac chauffé devraient, selon l’Organisation mondiale de la santé, être soumis aux mesures politiques et réglementaires appliquées à tous les autres produits du tabac.
 Pourtant, en Suisse comme dans d’autres pays, ces produits profitent des brèches laissées par les cadres légaux, notamment en matière d’avertissements sur les emballages, de taxation et d’usage dans les lieux publics.
-En France et en Belgique, le paquet de mini-cigarettes à chauffer n'est pas soumis à l'obligation d'emballage neutre[8].
-En outre la marge  de profit pour l'industrie du tabac sur la vente d'un paquet de bâtonnets à chauffer est bien supérieure à celle d'un paquet de cigarettes car le prix au détail est l'équivalent avec une taxation bien moindre[9],[10],[11].
-La fuite de plusieurs documents révèle qu'en 2018 Philip Morris International a essayé de faire passer un projet de loi qui aurait autorisé la publicité en faveur de la cigarette électronique et des produits du tabac chauffé au Royaume-Uni[12].
+En France et en Belgique, le paquet de mini-cigarettes à chauffer n'est pas soumis à l'obligation d'emballage neutre.
+En outre la marge  de profit pour l'industrie du tabac sur la vente d'un paquet de bâtonnets à chauffer est bien supérieure à celle d'un paquet de cigarettes car le prix au détail est l'équivalent avec une taxation bien moindre.
+La fuite de plusieurs documents révèle qu'en 2018 Philip Morris International a essayé de faire passer un projet de loi qui aurait autorisé la publicité en faveur de la cigarette électronique et des produits du tabac chauffé au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,10 +662,12 @@
           <t>Aspects économiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le procédé est commercialisé par les principales entreprises de l’industrie du tabac comme Philip Morris International, British American Tobacco et Japan Tobacco.
-Les ventes de tabac chauffé par la société Philip Morris International sont en nette hausse : l'entreprise a expédié un total de 17 milliards d'unités de tabac chauffé au cours du premier trimestre 2020, en hausse de 46 % par rapport au premier trimestre 2019[13].
+Les ventes de tabac chauffé par la société Philip Morris International sont en nette hausse : l'entreprise a expédié un total de 17 milliards d'unités de tabac chauffé au cours du premier trimestre 2020, en hausse de 46 % par rapport au premier trimestre 2019.
 </t>
         </is>
       </c>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tabac_chauff%C3%A9</t>
+          <t>Tabac_chauffé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,9 +696,11 @@
           <t>Lobbying de l'industrie du tabac</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Morris International (PMI) finance intégralement (à hauteur de 80 millions de dollars par an) une fondation qu'elle a créée en 2017, la Fondation pour un monde sans fumée, à des fins de lobbying en faveur des produits alternatifs à la cigarette que PMI commercialise, tels que le tabac chauffé[14].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Morris International (PMI) finance intégralement (à hauteur de 80 millions de dollars par an) une fondation qu'elle a créée en 2017, la Fondation pour un monde sans fumée, à des fins de lobbying en faveur des produits alternatifs à la cigarette que PMI commercialise, tels que le tabac chauffé.
 </t>
         </is>
       </c>
